--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Nigeria_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Nigeria_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G279"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7426,6 +7426,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>ECONOMICS:NGM2</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>54191661320000</v>
+      </c>
+      <c r="D280" t="n">
+        <v>54191661320000</v>
+      </c>
+      <c r="E280" t="n">
+        <v>54191661320000</v>
+      </c>
+      <c r="F280" t="n">
+        <v>54191661320000</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>ECONOMICS:NGM2</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>55646745840000</v>
+      </c>
+      <c r="D281" t="n">
+        <v>55646745840000</v>
+      </c>
+      <c r="E281" t="n">
+        <v>55646745840000</v>
+      </c>
+      <c r="F281" t="n">
+        <v>55646745840000</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>ECONOMICS:NGM2</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>55500913410000</v>
+      </c>
+      <c r="D282" t="n">
+        <v>55500913410000</v>
+      </c>
+      <c r="E282" t="n">
+        <v>55500913410000</v>
+      </c>
+      <c r="F282" t="n">
+        <v>55500913410000</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Nigeria_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Nigeria_M2.xlsx
@@ -7461,16 +7461,16 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>55646745840000</v>
+        <v>55649344640000</v>
       </c>
       <c r="D281" t="n">
-        <v>55646745840000</v>
+        <v>55649344640000</v>
       </c>
       <c r="E281" t="n">
-        <v>55646745840000</v>
+        <v>55649344640000</v>
       </c>
       <c r="F281" t="n">
-        <v>55646745840000</v>
+        <v>55649344640000</v>
       </c>
       <c r="G281" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Nigeria_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Nigeria_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>54191661320000</v>
+        <v>54185866750000</v>
       </c>
       <c r="D280" t="n">
-        <v>54191661320000</v>
+        <v>54185866750000</v>
       </c>
       <c r="E280" t="n">
-        <v>54191661320000</v>
+        <v>54185866750000</v>
       </c>
       <c r="F280" t="n">
-        <v>54191661320000</v>
+        <v>54185866750000</v>
       </c>
       <c r="G280" t="n">
         <v>0</v>
@@ -7486,18 +7486,43 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>55500913410000</v>
+        <v>55550398020000</v>
       </c>
       <c r="D282" t="n">
-        <v>55500913410000</v>
+        <v>55550398020000</v>
       </c>
       <c r="E282" t="n">
-        <v>55500913410000</v>
+        <v>55550398020000</v>
       </c>
       <c r="F282" t="n">
-        <v>55500913410000</v>
+        <v>55550398020000</v>
       </c>
       <c r="G282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>ECONOMICS:NGM2</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>64358217200000</v>
+      </c>
+      <c r="D283" t="n">
+        <v>64358217200000</v>
+      </c>
+      <c r="E283" t="n">
+        <v>64358217200000</v>
+      </c>
+      <c r="F283" t="n">
+        <v>64358217200000</v>
+      </c>
+      <c r="G283" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Nigeria_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Nigeria_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G283"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -7523,6 +7523,31 @@
         <v>64358217200000</v>
       </c>
       <c r="G283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>ECONOMICS:NGM2</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>64926250750000</v>
+      </c>
+      <c r="D284" t="n">
+        <v>64926250750000</v>
+      </c>
+      <c r="E284" t="n">
+        <v>64926250750000</v>
+      </c>
+      <c r="F284" t="n">
+        <v>64926250750000</v>
+      </c>
+      <c r="G284" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Nigeria_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Nigeria_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7551,6 +7551,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>ECONOMICS:NGM2</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>65149401840000</v>
+      </c>
+      <c r="D285" t="n">
+        <v>65149401840000</v>
+      </c>
+      <c r="E285" t="n">
+        <v>65149401840000</v>
+      </c>
+      <c r="F285" t="n">
+        <v>65149401840000</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>ECONOMICS:NGM2</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>66415072760000</v>
+      </c>
+      <c r="D286" t="n">
+        <v>66415072760000</v>
+      </c>
+      <c r="E286" t="n">
+        <v>66415072760000</v>
+      </c>
+      <c r="F286" t="n">
+        <v>66415072760000</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
